--- a/results/cu_jgr/15x15/cu_jgr_15x15_True_2_20_0.2.xlsx
+++ b/results/cu_jgr/15x15/cu_jgr_15x15_True_2_20_0.2.xlsx
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>79.05</v>
+        <v>78.7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01357</v>
+        <v>0.01251</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00678</v>
+        <v>0.00625</v>
       </c>
       <c r="F2" t="n">
-        <v>1.49846</v>
+        <v>1.39921</v>
       </c>
       <c r="G2" t="n">
         <v>0.85</v>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>63.7</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03306</v>
+        <v>0.04376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01653</v>
+        <v>0.02188</v>
       </c>
       <c r="F3" t="n">
-        <v>2.58997</v>
+        <v>3.42212</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -524,16 +524,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.8</v>
+        <v>41.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04518</v>
+        <v>0.06219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01129</v>
+        <v>0.01555</v>
       </c>
       <c r="F4" t="n">
-        <v>2.65423</v>
+        <v>3.59001</v>
       </c>
       <c r="G4" t="n">
         <v>0.15</v>
@@ -547,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>43.45</v>
+        <v>43.75</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02117</v>
+        <v>0.02716</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00529</v>
+        <v>0.00679</v>
       </c>
       <c r="F5" t="n">
-        <v>1.52044</v>
+        <v>1.85701</v>
       </c>
       <c r="G5" t="n">
         <v>0.85</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>27.45</v>
+        <v>24.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03391</v>
+        <v>0.03712</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00565</v>
+        <v>0.00619</v>
       </c>
       <c r="F6" t="n">
-        <v>1.70787</v>
+        <v>1.74744</v>
       </c>
       <c r="G6" t="n">
         <v>0.85</v>
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>24.35</v>
+        <v>28.95</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06894</v>
+        <v>0.07126</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01149</v>
+        <v>0.01188</v>
       </c>
       <c r="F7" t="n">
-        <v>2.74437</v>
+        <v>3.25552</v>
       </c>
       <c r="G7" t="n">
         <v>0.15</v>
@@ -616,16 +616,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>20.45</v>
+        <v>21.2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07367</v>
+        <v>0.09186</v>
       </c>
       <c r="E8" t="n">
-        <v>0.009209999999999999</v>
+        <v>0.01148</v>
       </c>
       <c r="F8" t="n">
-        <v>2.48578</v>
+        <v>3.09895</v>
       </c>
       <c r="G8" t="n">
         <v>0.15</v>
@@ -639,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>19.65</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04184</v>
+        <v>0.04217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00523</v>
+        <v>0.00527</v>
       </c>
       <c r="F9" t="n">
-        <v>1.71593</v>
+        <v>1.74764</v>
       </c>
       <c r="G9" t="n">
         <v>0.85</v>
@@ -662,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04647</v>
+        <v>0.03833</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00465</v>
+        <v>0.00383</v>
       </c>
       <c r="F10" t="n">
-        <v>1.48893</v>
+        <v>1.25236</v>
       </c>
       <c r="G10" t="n">
         <v>0.85</v>
@@ -685,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9</v>
+        <v>14.55</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10131</v>
+        <v>0.11049</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01013</v>
+        <v>0.01105</v>
       </c>
       <c r="F11" t="n">
-        <v>2.67844</v>
+        <v>2.82535</v>
       </c>
       <c r="G11" t="n">
         <v>0.15</v>
